--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2962BE4F-4ABD-41B8-AF42-A7EF150A893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E62AE9-A7D8-454F-BD8F-3E40DC4B55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="810">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3484,6 +3484,30 @@
   </si>
   <si>
     <t>しゅるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かぶる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（帽子）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さしみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（刺し身）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4101,7 +4125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -6147,6 +6171,15 @@
       <c r="B7" s="34" t="s">
         <v>516</v>
       </c>
+      <c r="E7" s="34" t="s">
+        <v>804</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>805</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>806</v>
+      </c>
       <c r="I7" s="34" t="s">
         <v>792</v>
       </c>
@@ -6242,10 +6275,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6749,115 +6782,130 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="18">
-      <c r="A18" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>423</v>
-      </c>
+      <c r="A18" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>809</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="18">
       <c r="A19" s="34" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="C19" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18">
       <c r="A20" s="34" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>415</v>
+        <v>408</v>
+      </c>
+      <c r="C20" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="18">
       <c r="A21" s="34" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="18">
       <c r="A22" s="34" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="18">
       <c r="A23" s="34" t="s">
+        <v>446</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="18">
+      <c r="A24" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="18">
-      <c r="A24" t="s">
+    <row r="25" spans="1:16" ht="18">
+      <c r="A25" t="s">
         <v>524</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B25" s="34" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="18">
-      <c r="A25" s="34" t="s">
+    <row r="26" spans="1:16" ht="18">
+      <c r="A26" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B26" s="34" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="18">
-      <c r="A26" s="38" t="s">
+    <row r="27" spans="1:16" ht="18">
+      <c r="A27" s="38" t="s">
         <v>523</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B27" s="34" t="s">
         <v>522</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="18">
-      <c r="A27" s="34" t="s">
-        <v>529</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="C27" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="18">
       <c r="A28" s="34" t="s">
+        <v>529</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>530</v>
+      </c>
+      <c r="C28" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="18">
+      <c r="A29" s="34" t="s">
         <v>531</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B29" s="34" t="s">
         <v>534</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="18">
-      <c r="A29" t="s">
+    <row r="30" spans="1:16" ht="18">
+      <c r="A30" t="s">
         <v>535</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B30" s="34" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="18">
-      <c r="A30" s="34" t="s">
+    <row r="31" spans="1:16" ht="18">
+      <c r="A31" s="34" t="s">
         <v>577</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B31" s="34" t="s">
         <v>578</v>
       </c>
     </row>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E62AE9-A7D8-454F-BD8F-3E40DC4B55C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4CE1D-75D7-48CE-8C17-086EDA76D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="818">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3508,6 +3508,38 @@
   </si>
   <si>
     <t>（刺し身）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>知らせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しらせ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悪い知らせがありました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>むすめ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違い</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちがい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読書</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>どくしょ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4125,8 +4157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4337,10 +4369,10 @@
         <v>667</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>712</v>
+        <v>814</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>713</v>
+        <v>815</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>714</v>
@@ -4360,10 +4392,13 @@
         <v>669</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>716</v>
+        <v>713</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4380,10 +4415,10 @@
         <v>671</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4403,10 +4438,10 @@
         <v>672</v>
       </c>
       <c r="I13" s="34" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="J13" s="34" t="s">
-        <v>748</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4426,10 +4461,10 @@
         <v>730</v>
       </c>
       <c r="I14" s="34" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="J14" s="34" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -4446,10 +4481,10 @@
         <v>732</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="J15" s="34" t="s">
-        <v>553</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -4465,6 +4500,12 @@
       <c r="F16" s="34" t="s">
         <v>752</v>
       </c>
+      <c r="I16" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="34" t="s">
@@ -4489,6 +4530,15 @@
       </c>
       <c r="B18" s="34" t="s">
         <v>750</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>811</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6277,7 +6327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -6917,10 +6967,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7093,6 +7143,19 @@
         <v>695</v>
       </c>
     </row>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="34" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="18">
+      <c r="B17" s="34" t="s">
+        <v>813</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7103,8 +7166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47639CE2-68F7-4673-A298-E034A868B499}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7351,6 +7414,12 @@
       </c>
       <c r="C15" s="34" t="s">
         <v>587</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4CE1D-75D7-48CE-8C17-086EDA76D553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DB25DC-C68E-4040-8237-40529C425C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="844">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3542,12 +3542,156 @@
     <t>どくしょ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さんかくけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>しかくけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せいほうけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ちょうほうけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>円形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えんけい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花柄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はんがら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かたち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ごみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴミ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>垃圾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すがた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はさみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剪刀）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引っ越し</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひっこし</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（搬家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3791,6 +3935,21 @@
       <name val="Segoe UI Symbol"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3A3A3A"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3813,7 +3972,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3874,6 +4033,8 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6088,10 +6249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A2:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6102,7 +6263,21 @@
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="18">
+    <row r="1" spans="1:13" ht="18">
+      <c r="I1" t="s">
+        <v>830</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="L1" t="s">
+        <v>836</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18">
       <c r="A2" t="s">
         <v>386</v>
       </c>
@@ -6128,7 +6303,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18">
+    <row r="3" spans="1:13" ht="18">
       <c r="A3" s="34" t="s">
         <v>330</v>
       </c>
@@ -6154,7 +6329,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18">
+    <row r="4" spans="1:13" ht="18">
       <c r="A4" s="34" t="s">
         <v>581</v>
       </c>
@@ -6177,7 +6352,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18">
+    <row r="5" spans="1:13" ht="18">
       <c r="A5" s="34" t="s">
         <v>737</v>
       </c>
@@ -6197,7 +6372,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18">
+    <row r="6" spans="1:13" ht="18">
       <c r="E6" s="34" t="s">
         <v>546</v>
       </c>
@@ -6214,7 +6389,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="18">
+    <row r="7" spans="1:13" ht="18">
       <c r="A7" t="s">
         <v>515</v>
       </c>
@@ -6237,7 +6412,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18">
+    <row r="8" spans="1:13" ht="18">
       <c r="A8" t="s">
         <v>364</v>
       </c>
@@ -6247,16 +6422,28 @@
       <c r="C8" s="34" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18">
+      <c r="I8" s="34" t="s">
+        <v>828</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18">
       <c r="A9" t="s">
         <v>378</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="18">
+      <c r="I9" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="J9" s="34" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18">
       <c r="A10" s="34" t="s">
         <v>452</v>
       </c>
@@ -6266,8 +6453,14 @@
       <c r="C10" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="18">
+      <c r="I10" s="34" t="s">
+        <v>820</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18">
       <c r="A11" s="34" t="s">
         <v>555</v>
       </c>
@@ -6277,28 +6470,46 @@
       <c r="C11" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="18">
+      <c r="I11" t="s">
+        <v>822</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18">
       <c r="A12" s="34" t="s">
         <v>606</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="18">
+      <c r="I12" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="J12" s="34" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18">
       <c r="A13" s="34" t="s">
         <v>674</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="18">
+      <c r="I13" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18">
       <c r="A14" s="34"/>
       <c r="B14" s="34"/>
     </row>
-    <row r="15" spans="1:11" ht="18">
+    <row r="15" spans="1:13" ht="18">
       <c r="A15" s="34" t="s">
         <v>351</v>
       </c>
@@ -6306,7 +6517,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18">
+    <row r="16" spans="1:13" ht="18">
       <c r="A16" t="s">
         <v>537</v>
       </c>
@@ -6327,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6967,10 +7178,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6980,7 +7191,7 @@
     <col min="3" max="3" width="29.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="18">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" t="s">
         <v>288</v>
       </c>
@@ -6994,23 +7205,26 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>321</v>
+        <v>838</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>839</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>840</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:7" ht="18">
       <c r="A4" s="34" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
         <v>552</v>
@@ -7022,12 +7236,12 @@
         <v>554</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D5" t="s">
         <v>572</v>
@@ -7039,12 +7253,12 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="34" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C6" s="34" t="s">
         <v>366</v>
@@ -7059,100 +7273,129 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18">
+    <row r="7" spans="1:7" ht="18">
       <c r="A7" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="34" t="s">
         <v>431</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B8" s="34" t="s">
         <v>432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="34" t="s">
-        <v>549</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>550</v>
       </c>
       <c r="C8" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18">
+      <c r="D8" s="34" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
       <c r="A9" s="34" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C9" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18">
+    <row r="10" spans="1:7" ht="18">
       <c r="A10" s="34" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="C10" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18">
+    <row r="11" spans="1:7" ht="18">
       <c r="A11" s="34" t="s">
+        <v>558</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="34" t="s">
         <v>382</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B12" s="34" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="34" t="s">
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="34" t="s">
         <v>564</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B13" s="34" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="34" t="s">
-        <v>566</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>567</v>
       </c>
       <c r="C13" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="34" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
+      <c r="A15" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:7" ht="15.6">
+      <c r="A16" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="34" t="s">
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="34" t="s">
         <v>520</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B17" s="34" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18">
-      <c r="B17" s="34" t="s">
+    <row r="18" spans="1:2" ht="18">
+      <c r="B18" s="34" t="s">
         <v>813</v>
       </c>
     </row>
@@ -7166,8 +7409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47639CE2-68F7-4673-A298-E034A868B499}">
   <dimension ref="A2:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DB25DC-C68E-4040-8237-40529C425C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F881D2F-EAF1-415D-9F79-CFC546ECD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="851">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3523,10 +3523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>むすめ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>違い</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3686,12 +3682,63 @@
     <t>（搬家）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まくら</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジーンズ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>牛仔裤）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jeans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ジャケット</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jacket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（皮夹克）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3950,6 +3997,13 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3972,7 +4026,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4035,6 +4089,7 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4530,10 +4585,10 @@
         <v>667</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>813</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>814</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>815</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>714</v>
@@ -6249,10 +6304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6265,16 +6320,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="I1" t="s">
+        <v>829</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>830</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>831</v>
-      </c>
       <c r="L1" t="s">
+        <v>835</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>836</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -6423,10 +6478,10 @@
         <v>367</v>
       </c>
       <c r="I8" s="34" t="s">
+        <v>827</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>828</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18">
@@ -6437,10 +6492,10 @@
         <v>379</v>
       </c>
       <c r="I9" s="34" t="s">
+        <v>817</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>818</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18">
@@ -6454,10 +6509,10 @@
         <v>454</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>819</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>820</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18">
@@ -6471,10 +6526,10 @@
         <v>557</v>
       </c>
       <c r="I11" t="s">
+        <v>821</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>822</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -6485,10 +6540,10 @@
         <v>607</v>
       </c>
       <c r="I12" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>824</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -6499,32 +6554,58 @@
         <v>675</v>
       </c>
       <c r="I13" s="34" t="s">
+        <v>825</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>826</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>827</v>
-      </c>
     </row>
     <row r="14" spans="1:13" ht="18">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="34" t="s">
+        <v>849</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="C14" t="s">
+        <v>850</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="18">
       <c r="A15" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>845</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>846</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" ht="18">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="1:3" ht="18">
+      <c r="A17" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B17" s="34" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18">
-      <c r="A16" t="s">
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" t="s">
         <v>537</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B18" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C18" s="34" t="s">
         <v>539</v>
       </c>
     </row>
@@ -7180,8 +7261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7207,13 +7288,13 @@
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="34" t="s">
+        <v>837</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>838</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>839</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>840</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
@@ -7281,16 +7362,16 @@
         <v>360</v>
       </c>
       <c r="D7" s="34" t="s">
+        <v>831</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>832</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>833</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>835</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
@@ -7304,13 +7385,13 @@
         <v>551</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>840</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>841</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>842</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
@@ -7388,16 +7469,14 @@
     </row>
     <row r="17" spans="1:2" ht="18">
       <c r="A17" s="34" t="s">
-        <v>520</v>
+        <v>843</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>519</v>
+        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
-      <c r="B18" s="34" t="s">
-        <v>813</v>
-      </c>
+      <c r="B18" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7659,10 +7738,10 @@
         <v>587</v>
       </c>
       <c r="F15" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>816</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F881D2F-EAF1-415D-9F79-CFC546ECD836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85999F3-A00A-4529-B3AA-78C295B2D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="861">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3731,6 +3731,68 @@
   </si>
   <si>
     <t>（皮夹克）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下駄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>げた</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下駄屋｜げたや</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（木屐）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剣道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けんどう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剣道部｜けんどうぶ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じかんわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（作息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6304,10 +6366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6590,7 +6652,7 @@
       <c r="A16" s="34"/>
       <c r="B16" s="34"/>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="34" t="s">
         <v>351</v>
       </c>
@@ -6598,7 +6660,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" t="s">
         <v>537</v>
       </c>
@@ -6607,6 +6669,20 @@
       </c>
       <c r="C18" s="34" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>852</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -7261,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
   <dimension ref="A2:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7404,6 +7480,15 @@
       <c r="C9" t="s">
         <v>563</v>
       </c>
+      <c r="D9" s="34" t="s">
+        <v>858</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>859</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="18">
       <c r="A10" s="34" t="s">
@@ -7489,7 +7574,7 @@
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7753,6 +7838,15 @@
       </c>
       <c r="C16" s="34" t="s">
         <v>592</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>855</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85999F3-A00A-4529-B3AA-78C295B2D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD740F2-30A1-4101-B5C1-A7C017BD966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="865">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3793,6 +3793,22 @@
       </rPr>
       <t>表）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炊飯器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すいはんき</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>節約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>せつやく</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7338,7 +7354,7 @@
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7500,6 +7516,12 @@
       <c r="C10" t="s">
         <v>560</v>
       </c>
+      <c r="D10" s="34" t="s">
+        <v>863</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="18">
       <c r="A11" s="34" t="s">
@@ -7561,7 +7583,12 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="18">
-      <c r="B18" s="34"/>
+      <c r="A18" s="34" t="s">
+        <v>861</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>862</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD740F2-30A1-4101-B5C1-A7C017BD966C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26757A-BA92-4DE2-AB1B-7DF7D2BC7C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="875">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3809,6 +3809,84 @@
   </si>
   <si>
     <t>せつやく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>そで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はきもの</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はで</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>穿着打扮）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包丁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ほうちょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>菜刀）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6382,10 +6460,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6665,40 +6743,70 @@
       <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="18">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="34" t="s">
+        <v>865</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+    </row>
+    <row r="18" spans="1:4" ht="18">
+      <c r="A18" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B18" s="34" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18" t="s">
+    <row r="19" spans="1:4" ht="18">
+      <c r="A19" t="s">
         <v>537</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C19" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18">
-      <c r="A19" s="34" t="s">
+    <row r="20" spans="1:4" ht="18">
+      <c r="A20" s="34" t="s">
         <v>851</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B20" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>853</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>854</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18">
+      <c r="A21" s="34" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18">
+      <c r="A22" s="34" t="s">
+        <v>869</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>870</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>
@@ -6712,7 +6820,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7351,10 +7459,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
-  <dimension ref="A2:G18"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7574,7 +7682,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18">
+    <row r="17" spans="1:3" ht="18">
       <c r="A17" s="34" t="s">
         <v>843</v>
       </c>
@@ -7582,12 +7690,23 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="18">
+    <row r="18" spans="1:3" ht="18">
       <c r="A18" s="34" t="s">
         <v>861</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>862</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18">
+      <c r="A19" s="34" t="s">
+        <v>872</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>873</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B26757A-BA92-4DE2-AB1B-7DF7D2BC7C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC0A45E-2A6C-4A83-9AFE-5A17BE9D703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="879">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3306,31 +3306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>9新</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>鲜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>的）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>手際</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3886,6 +3861,66 @@
         <scheme val="minor"/>
       </rPr>
       <t>菜刀）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひも</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靴の紐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鞋带）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>鲜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>的）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4530,7 +4565,7 @@
   <dimension ref="A2:N23"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4607,10 +4642,10 @@
         <v>657</v>
       </c>
       <c r="I4" s="34" t="s">
+        <v>789</v>
+      </c>
+      <c r="J4" s="34" t="s">
         <v>790</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -4741,10 +4776,10 @@
         <v>667</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>812</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>813</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>814</v>
       </c>
       <c r="K10" s="34" t="s">
         <v>714</v>
@@ -4887,13 +4922,13 @@
         <v>746</v>
       </c>
       <c r="E17" s="34" t="s">
+        <v>764</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>765</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="G17" s="34" t="s">
         <v>766</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4904,53 +4939,53 @@
         <v>750</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>810</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="G18" s="34" t="s">
         <v>811</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="34" t="s">
+        <v>771</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>772</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="34" t="s">
+        <v>773</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>774</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="34" t="s">
+        <v>775</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>776</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="34" t="s">
+        <v>777</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>778</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>802</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -6460,10 +6495,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6476,16 +6511,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18">
       <c r="I1" t="s">
+        <v>828</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>829</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>830</v>
-      </c>
       <c r="L1" t="s">
+        <v>834</v>
+      </c>
+      <c r="M1" s="34" t="s">
         <v>835</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18">
@@ -6608,19 +6643,19 @@
         <v>516</v>
       </c>
       <c r="E7" s="34" t="s">
+        <v>803</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>804</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="G7" s="34" t="s">
         <v>805</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>806</v>
-      </c>
       <c r="I7" s="34" t="s">
+        <v>791</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>792</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18">
@@ -6634,10 +6669,10 @@
         <v>367</v>
       </c>
       <c r="I8" s="34" t="s">
+        <v>826</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>827</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18">
@@ -6648,10 +6683,10 @@
         <v>379</v>
       </c>
       <c r="I9" s="34" t="s">
+        <v>816</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>817</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18">
@@ -6665,10 +6700,10 @@
         <v>454</v>
       </c>
       <c r="I10" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>819</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18">
@@ -6682,10 +6717,10 @@
         <v>557</v>
       </c>
       <c r="I11" t="s">
+        <v>820</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>821</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18">
@@ -6696,10 +6731,10 @@
         <v>607</v>
       </c>
       <c r="I12" s="34" t="s">
+        <v>822</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>823</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18">
@@ -6710,44 +6745,44 @@
         <v>675</v>
       </c>
       <c r="I13" s="34" t="s">
+        <v>824</v>
+      </c>
+      <c r="J13" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="J13" s="34" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18">
       <c r="A14" s="34" t="s">
+        <v>848</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="C14" t="s">
         <v>849</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>848</v>
-      </c>
-      <c r="C14" t="s">
-        <v>850</v>
       </c>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
     </row>
     <row r="15" spans="1:13" ht="18">
       <c r="A15" s="34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>845</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>846</v>
       </c>
       <c r="I15" s="34"/>
       <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:13" ht="18">
       <c r="A16" s="34" t="s">
+        <v>864</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>865</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>866</v>
       </c>
       <c r="C16" s="42"/>
       <c r="I16" s="34"/>
@@ -6778,35 +6813,49 @@
     </row>
     <row r="20" spans="1:4" ht="18">
       <c r="A20" s="34" t="s">
+        <v>850</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>851</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="D20" s="34" t="s">
         <v>853</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
       <c r="A21" s="34" t="s">
+        <v>866</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>867</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
       <c r="A22" s="34" t="s">
+        <v>868</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="C22" s="41" t="s">
         <v>870</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>871</v>
+    </row>
+    <row r="23" spans="1:4" ht="18">
+      <c r="A23" s="34" t="s">
+        <v>874</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>875</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>876</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>877</v>
       </c>
     </row>
   </sheetData>
@@ -6820,7 +6869,7 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7208,7 +7257,7 @@
         <v>763</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>764</v>
+        <v>878</v>
       </c>
       <c r="O12" s="34" t="s">
         <v>466</v>
@@ -7291,10 +7340,10 @@
         <v>213</v>
       </c>
       <c r="G16" s="34" t="s">
+        <v>785</v>
+      </c>
+      <c r="H16" s="34" t="s">
         <v>786</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>787</v>
       </c>
       <c r="O16" t="s">
         <v>735</v>
@@ -7311,10 +7360,10 @@
         <v>430</v>
       </c>
       <c r="G17" s="34" t="s">
+        <v>783</v>
+      </c>
+      <c r="H17" s="34" t="s">
         <v>784</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>785</v>
       </c>
       <c r="O17" s="34" t="s">
         <v>761</v>
@@ -7325,13 +7374,13 @@
     </row>
     <row r="18" spans="1:16" ht="18">
       <c r="A18" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>807</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="34" t="s">
         <v>808</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>809</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -7461,8 +7510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7488,13 +7537,13 @@
     </row>
     <row r="3" spans="1:7" ht="18">
       <c r="A3" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="B3" s="40" t="s">
         <v>837</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>838</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>839</v>
       </c>
       <c r="D3" t="s">
         <v>341</v>
@@ -7562,16 +7611,16 @@
         <v>360</v>
       </c>
       <c r="D7" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>831</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="34" t="s">
+        <v>833</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>832</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>834</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
@@ -7585,13 +7634,13 @@
         <v>551</v>
       </c>
       <c r="D8" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>840</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="34" t="s">
         <v>841</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
@@ -7605,13 +7654,13 @@
         <v>563</v>
       </c>
       <c r="D9" s="34" t="s">
+        <v>857</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>858</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="34" t="s">
         <v>859</v>
-      </c>
-      <c r="F9" s="34" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
@@ -7625,10 +7674,10 @@
         <v>560</v>
       </c>
       <c r="D10" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>863</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
@@ -7684,29 +7733,29 @@
     </row>
     <row r="17" spans="1:3" ht="18">
       <c r="A17" s="34" t="s">
+        <v>842</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>843</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>861</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="34" t="s">
+        <v>871</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="C19" s="41" t="s">
         <v>873</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -7720,7 +7769,7 @@
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7969,10 +8018,10 @@
         <v>587</v>
       </c>
       <c r="F15" s="34" t="s">
+        <v>814</v>
+      </c>
+      <c r="G15" s="34" t="s">
         <v>815</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
@@ -7986,13 +8035,13 @@
         <v>592</v>
       </c>
       <c r="F16" s="34" t="s">
+        <v>854</v>
+      </c>
+      <c r="G16" s="34" t="s">
         <v>855</v>
       </c>
-      <c r="G16" s="34" t="s">
+      <c r="H16" s="34" t="s">
         <v>856</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18">
@@ -8029,7 +8078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F278FC92-ECE5-496D-BA2A-7870FD489207}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8165,74 +8214,74 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>768</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="34" t="s">
+        <v>769</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>770</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="34" t="s">
+        <v>779</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>780</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>782</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="34" t="s">
+        <v>787</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>788</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="34" t="s">
+        <v>793</v>
+      </c>
+      <c r="B21" s="34" t="s">
         <v>794</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="34" t="s">
+        <v>795</v>
+      </c>
+      <c r="B22" s="34" t="s">
         <v>796</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
+        <v>797</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>798</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
+        <v>799</v>
+      </c>
+      <c r="B24" s="34" t="s">
         <v>800</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EC0A45E-2A6C-4A83-9AFE-5A17BE9D703E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A2258-8D88-490C-B92D-06C49D955778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="881">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3922,6 +3922,14 @@
       </rPr>
       <t>的）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麵類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>めんるい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6866,10 +6874,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7498,6 +7506,14 @@
       </c>
       <c r="B31" s="34" t="s">
         <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="18">
+      <c r="A32" s="34" t="s">
+        <v>879</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F278FC92-ECE5-496D-BA2A-7870FD489207}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32A2258-8D88-490C-B92D-06C49D955778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209D380-EC21-4DA1-BF16-0300735F78FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="884">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3930,6 +3930,39 @@
   </si>
   <si>
     <t>めんるい</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着替える</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きがえる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>衣服）</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6505,8 +6538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6676,6 +6709,15 @@
       <c r="C8" s="34" t="s">
         <v>367</v>
       </c>
+      <c r="E8" t="s">
+        <v>881</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>882</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>883</v>
+      </c>
       <c r="I8" s="34" t="s">
         <v>826</v>
       </c>
@@ -6876,7 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7209D380-EC21-4DA1-BF16-0300735F78FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488DB8F-B5D6-4ECA-A56F-A692F5DF273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="891">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3963,6 +3963,55 @@
       </rPr>
       <t>衣服）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>襟折れてだから</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えりおれて</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>领</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>子折了）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あいしょう</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4605,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4955,7 +5004,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:10">
       <c r="A17" s="34" t="s">
         <v>745</v>
       </c>
@@ -4971,8 +5020,14 @@
       <c r="G17" s="34" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="34" t="s">
+        <v>889</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="34" t="s">
         <v>749</v>
       </c>
@@ -4989,7 +5044,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:10">
       <c r="A19" s="34" t="s">
         <v>771</v>
       </c>
@@ -4997,7 +5052,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:10">
       <c r="A20" s="34" t="s">
         <v>773</v>
       </c>
@@ -5005,7 +5060,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:10">
       <c r="A21" s="34" t="s">
         <v>775</v>
       </c>
@@ -5013,7 +5068,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:10">
       <c r="A22" s="34" t="s">
         <v>777</v>
       </c>
@@ -5021,7 +5076,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:10">
       <c r="A23" s="34" t="s">
         <v>801</v>
       </c>
@@ -6536,10 +6591,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2BE5C9-F67C-4EE7-80AE-342561EFFBCB}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6732,6 +6787,15 @@
       <c r="B9" s="34" t="s">
         <v>379</v>
       </c>
+      <c r="E9" s="34" t="s">
+        <v>886</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>887</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>888</v>
+      </c>
       <c r="I9" s="34" t="s">
         <v>816</v>
       </c>
@@ -6838,73 +6902,84 @@
       <c r="I16" s="34"/>
       <c r="J16" s="34"/>
     </row>
-    <row r="17" spans="1:4" ht="18">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-    </row>
-    <row r="18" spans="1:4" ht="18">
-      <c r="A18" s="34" t="s">
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="34" t="s">
+        <v>884</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>885</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="34" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18">
-      <c r="A19" t="s">
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" t="s">
         <v>537</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B20" s="34" t="s">
         <v>538</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C20" s="34" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18">
-      <c r="A20" s="34" t="s">
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="34" t="s">
         <v>850</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B21" s="34" t="s">
         <v>851</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C21" s="34" t="s">
         <v>852</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D21" s="34" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18">
-      <c r="A21" s="34" t="s">
+    <row r="22" spans="1:10" ht="18">
+      <c r="A22" s="34" t="s">
         <v>866</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B22" s="34" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18">
-      <c r="A22" s="34" t="s">
+    <row r="23" spans="1:10" ht="18">
+      <c r="A23" s="34" t="s">
         <v>868</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B23" s="34" t="s">
         <v>869</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C23" s="41" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18">
-      <c r="A23" s="34" t="s">
+    <row r="24" spans="1:10" ht="18">
+      <c r="A24" s="34" t="s">
         <v>874</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B24" s="34" t="s">
         <v>875</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C24" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D24" s="42" t="s">
         <v>877</v>
       </c>
     </row>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1488DB8F-B5D6-4ECA-A56F-A692F5DF273E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C4871-CF64-4007-B00A-DC55FBCBFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="900">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4012,6 +4012,42 @@
   </si>
   <si>
     <t>あいしょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>餌を</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>えさ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彩り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>いろどり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濾過</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ろか</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饅頭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まんじゅう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物件｜ぶっけん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4654,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
   <dimension ref="A2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6991,10 +7027,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7509,8 +7545,12 @@
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
+      <c r="O18" s="34" t="s">
+        <v>895</v>
+      </c>
+      <c r="P18" s="34" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="18">
       <c r="A19" s="34" t="s">
@@ -7631,6 +7671,22 @@
       </c>
       <c r="B32" s="34" t="s">
         <v>880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="34" t="s">
+        <v>891</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" s="34" t="s">
+        <v>897</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>898</v>
       </c>
     </row>
   </sheetData>
@@ -7641,10 +7697,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7655,239 +7711,244 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18">
-      <c r="A2" t="s">
+      <c r="A2" s="34" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18">
+      <c r="A3" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D3" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18">
-      <c r="A3" s="34" t="s">
-        <v>836</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>837</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>838</v>
-      </c>
-      <c r="D3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="18">
       <c r="A4" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>321</v>
+        <v>836</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>838</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="F4" s="34" t="s">
-        <v>554</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="18">
       <c r="A5" s="34" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="18">
       <c r="A6" s="34" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>638</v>
+        <v>336</v>
+      </c>
+      <c r="D6" t="s">
+        <v>572</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>639</v>
+        <v>573</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>640</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18">
       <c r="A7" s="34" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>360</v>
+        <v>338</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>366</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>830</v>
+        <v>638</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>831</v>
+        <v>639</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>833</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>832</v>
+        <v>640</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
       <c r="A8" s="34" t="s">
-        <v>431</v>
+        <v>361</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>432</v>
-      </c>
-      <c r="C8" t="s">
-        <v>551</v>
+        <v>360</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>841</v>
+        <v>833</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="18">
       <c r="A9" s="34" t="s">
-        <v>549</v>
+        <v>431</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>550</v>
+        <v>432</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>858</v>
+        <v>840</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>859</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="18">
       <c r="A10" s="34" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C10" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>863</v>
+        <v>858</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="18">
       <c r="A11" s="34" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>559</v>
+        <v>562</v>
+      </c>
+      <c r="C11" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>862</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="18">
       <c r="A12" s="34" t="s">
-        <v>382</v>
+        <v>558</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>383</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18">
       <c r="A13" s="34" t="s">
-        <v>564</v>
+        <v>382</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="C13" t="s">
-        <v>568</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="18">
       <c r="A14" s="34" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="C14" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="34" t="s">
         <v>566</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B15" s="34" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.6">
-      <c r="A15" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="A17" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>695</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18">
-      <c r="A17" s="34" t="s">
-        <v>842</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="34" t="s">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>861</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18">
       <c r="A19" s="34" t="s">
+        <v>860</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B20" s="34" t="s">
         <v>872</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C20" s="41" t="s">
         <v>873</v>
       </c>
     </row>
@@ -8209,10 +8270,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F278FC92-ECE5-496D-BA2A-7870FD489207}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8423,6 +8484,14 @@
       </c>
       <c r="B25" s="34" t="s">
         <v>591</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="34" t="s">
+        <v>893</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>894</v>
       </c>
     </row>
   </sheetData>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C4871-CF64-4007-B00A-DC55FBCBFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82163EAB-BFA8-4945-A9ED-5E82C4032F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="924">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4048,6 +4048,101 @@
   </si>
   <si>
     <t>物件｜ぶっけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>緩和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんわ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>じょうけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舐める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>なめる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はちみつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ばくはつ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ことわり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>けいとう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俳句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>はいく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>換装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かんそう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>質量</t>
+  </si>
+  <si>
+    <t>しつりょ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びちく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>備蓄品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>びちくひん</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4688,10 +4783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
-  <dimension ref="A2:N23"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4753,6 +4848,12 @@
       <c r="J3" s="34" t="s">
         <v>721</v>
       </c>
+      <c r="M3" s="34" t="s">
+        <v>900</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="34" t="s">
@@ -4773,6 +4874,12 @@
       <c r="J4" s="34" t="s">
         <v>790</v>
       </c>
+      <c r="M4" s="34" t="s">
+        <v>908</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="34" t="s">
@@ -5087,6 +5194,12 @@
       <c r="B19" s="34" t="s">
         <v>772</v>
       </c>
+      <c r="E19" s="34" t="s">
+        <v>902</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="34" t="s">
@@ -5095,6 +5208,12 @@
       <c r="B20" s="34" t="s">
         <v>774</v>
       </c>
+      <c r="E20" s="34" t="s">
+        <v>912</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="34" t="s">
@@ -5103,6 +5222,12 @@
       <c r="B21" s="34" t="s">
         <v>776</v>
       </c>
+      <c r="E21" s="34" t="s">
+        <v>801</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="34" t="s">
@@ -5114,10 +5239,26 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="34" t="s">
-        <v>801</v>
+        <v>733</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>802</v>
+        <v>734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="34" t="s">
+        <v>911</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="34" t="s">
+        <v>918</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>919</v>
       </c>
     </row>
   </sheetData>
@@ -6630,7 +6771,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6849,6 +6990,12 @@
       <c r="C10" t="s">
         <v>454</v>
       </c>
+      <c r="E10" s="34" t="s">
+        <v>916</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>917</v>
+      </c>
       <c r="I10" s="34" t="s">
         <v>818</v>
       </c>
@@ -7029,8 +7176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAAE8E2-4F15-4F5D-AA57-AE4D391C80DB}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7339,8 +7486,12 @@
       <c r="B10" t="s">
         <v>368</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="D10" s="34" t="s">
+        <v>906</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>907</v>
+      </c>
       <c r="G10" s="34" t="s">
         <v>569</v>
       </c>
@@ -7558,6 +7709,12 @@
       </c>
       <c r="B19" s="34" t="s">
         <v>423</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>904</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="18">
@@ -7700,7 +7857,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7881,6 +8038,12 @@
       <c r="B12" s="34" t="s">
         <v>559</v>
       </c>
+      <c r="D12" s="34" t="s">
+        <v>920</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="18">
       <c r="A13" s="34" t="s">
@@ -7889,6 +8052,12 @@
       <c r="B13" s="34" t="s">
         <v>383</v>
       </c>
+      <c r="D13" s="34" t="s">
+        <v>922</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>923</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="18">
       <c r="A14" s="34" t="s">
@@ -7900,6 +8069,7 @@
       <c r="C14" t="s">
         <v>568</v>
       </c>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="18">
       <c r="A15" s="34" t="s">
@@ -8270,10 +8440,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F278FC92-ECE5-496D-BA2A-7870FD489207}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8492,6 +8662,14 @@
       </c>
       <c r="B26" s="34" t="s">
         <v>894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="34" t="s">
+        <v>914</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>915</v>
       </c>
     </row>
   </sheetData>

--- a/Words(音读音 & 训练音).xlsx
+++ b/Words(音读音 & 训练音).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82163EAB-BFA8-4945-A9ED-5E82C4032F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094D56C1-6D0C-4A9B-AD69-232015AD291E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Object(もの)" sheetId="6" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="934">
   <si>
     <t>木</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4143,6 +4143,46 @@
   </si>
   <si>
     <t>びちくひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ひょうじゅん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古典文学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こてんぶんがく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工芸品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうげいひん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇妙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>きみょう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おうせい</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4783,10 +4823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E64ECE-FB91-4C10-BE82-49C6897072BA}">
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G14" sqref="D1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4903,6 +4943,12 @@
       <c r="J5" s="34" t="s">
         <v>723</v>
       </c>
+      <c r="M5" s="34" t="s">
+        <v>932</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="34" t="s">
@@ -5259,6 +5305,22 @@
       </c>
       <c r="B25" s="34" t="s">
         <v>919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="34" t="s">
+        <v>924</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="34" t="s">
+        <v>930</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -7856,8 +7918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED5BFB1-FD88-4B4E-8145-BC2EE986EE29}">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8069,7 +8131,6 @@
       <c r="C14" t="s">
         <v>568</v>
       </c>
-      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:7" ht="18">
       <c r="A15" s="34" t="s">
@@ -8440,10 +8501,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F278FC92-ECE5-496D-BA2A-7870FD489207}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -8618,58 +8679,74 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="34" t="s">
-        <v>793</v>
+        <v>926</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>794</v>
+        <v>927</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="34" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="34" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="34" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="34" t="s">
-        <v>590</v>
+        <v>799</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>591</v>
+        <v>800</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="34" t="s">
-        <v>893</v>
+        <v>590</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>894</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="34" t="s">
+        <v>893</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="34" t="s">
         <v>914</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B28" s="34" t="s">
         <v>915</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="34" t="s">
+        <v>928</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
